--- a/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
+++ b/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data Analytics Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data-Analytics-Projects/Week of July 9 2023/Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC80F5B-3FD4-8F47-9D1F-E0548BA64243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F999EE-6450-1240-BAD8-5AF0A521E839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,15 +33,210 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+  <si>
+    <t>Attendance Tracker</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Adams, Ava</t>
+  </si>
+  <si>
+    <t>Anderson, Ben</t>
+  </si>
+  <si>
+    <t>Anthony, Ashley</t>
+  </si>
+  <si>
+    <t>Austin, Caleb</t>
+  </si>
+  <si>
+    <t>Bailey, Chloe</t>
+  </si>
+  <si>
+    <t>Barnes, David</t>
+  </si>
+  <si>
+    <t>Bell, Emma</t>
+  </si>
+  <si>
+    <t>Bennett, Ethan</t>
+  </si>
+  <si>
+    <t>Brown, Finn</t>
+  </si>
+  <si>
+    <t>Campbell, Grace</t>
+  </si>
+  <si>
+    <t>Carter, Henry</t>
+  </si>
+  <si>
+    <t>Charles, Isabella</t>
+  </si>
+  <si>
+    <t>Clark, James</t>
+  </si>
+  <si>
+    <t>Davis, Joshua</t>
+  </si>
+  <si>
+    <t>Dawson, Kayla</t>
+  </si>
+  <si>
+    <t>Diaz, Liam</t>
+  </si>
+  <si>
+    <t>Doherty, Mia</t>
+  </si>
+  <si>
+    <t>Douglas, Noah</t>
+  </si>
+  <si>
+    <t>Edwards, Olivia</t>
+  </si>
+  <si>
+    <t>Evans, Owen</t>
+  </si>
+  <si>
+    <t>Fisher, Peyton</t>
+  </si>
+  <si>
+    <t>Frank, Ryan</t>
+  </si>
+  <si>
+    <t>Garcia, Sophia</t>
+  </si>
+  <si>
+    <t>Hall, William</t>
+  </si>
+  <si>
+    <t>Harris, Zoe</t>
+  </si>
+  <si>
+    <t>Henry, Zachary</t>
+  </si>
+  <si>
+    <t>Jackson, Ava</t>
+  </si>
+  <si>
+    <t>James, Ben</t>
+  </si>
+  <si>
+    <t>Lewis, Finn</t>
+  </si>
+  <si>
+    <t>Lopez, Grace</t>
+  </si>
+  <si>
+    <t>Martin, Henry</t>
+  </si>
+  <si>
+    <t>Miller, Isabella</t>
+  </si>
+  <si>
+    <t>Moore, James</t>
+  </si>
+  <si>
+    <t>Green, Thomas</t>
+  </si>
+  <si>
+    <t>Johnson, Chloe</t>
+  </si>
+  <si>
+    <t>Jones, David</t>
+  </si>
+  <si>
+    <t>Kelly, Ethan</t>
+  </si>
+  <si>
+    <t>Murphy, Joshua</t>
+  </si>
+  <si>
+    <t>Nelson, Kayla</t>
+  </si>
+  <si>
+    <t>Days Present</t>
+  </si>
+  <si>
+    <t>Days late</t>
+  </si>
+  <si>
+    <t>Academic Year 2022-2023</t>
+  </si>
+  <si>
+    <t>Academic Year2021-2022</t>
+  </si>
+  <si>
+    <t>Days Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> % In Attendance</t>
+  </si>
+  <si>
+    <t>% Late</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +259,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +588,1842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EDD961-275F-3A43-9D6B-5E1DFE90AE83}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <f>180-B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <f>(B4-C4)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <f>D4/B4</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I4">
+        <v>177</v>
+      </c>
+      <c r="J4">
+        <f>180-I4</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(I4-J4)/180</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M4" s="6">
+        <f>K4/I4</f>
+        <v>1.1299435028248588E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>153</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C42" si="0">180-B5</f>
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <f>(B5-C5)/180</f>
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5/B5</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="I5">
+        <v>179</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J42" si="1">180-I5</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L42" si="2">(I5-J5)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M42" si="3">K5/I5</f>
+        <v>2.23463687150838E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>176</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(B6-C6)/180</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6/B6</f>
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="I6">
+        <v>174</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2988505747126436E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(B7-C7)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7/B7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(B8-C8)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8/B8</f>
+        <v>1.11731843575419E-2</v>
+      </c>
+      <c r="I8">
+        <v>174</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2988505747126436E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <f>(B9-C9)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9/B9</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I9">
+        <v>178</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>168</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <f>(B10-C10)/180</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10/B10</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="I10">
+        <v>179</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5865921787709499E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>178</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6">
+        <f>(B11-C11)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11/B11</f>
+        <v>8.4269662921348312E-2</v>
+      </c>
+      <c r="I11">
+        <v>177</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>174</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(B12-C12)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12/B12</f>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="I12">
+        <v>180</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>180</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(B13-C13)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13/B13</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I13">
+        <v>176</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7045454545454544E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>174</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f>(B14-C14)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14/B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>174</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8735632183908046E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>179</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <f>(B15-C15)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15/B15</f>
+        <v>1.11731843575419E-2</v>
+      </c>
+      <c r="I15">
+        <v>178</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6853932584269662E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>176</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <f>(B16-C16)/180</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16/B16</f>
+        <v>2.8409090909090908E-2</v>
+      </c>
+      <c r="I16">
+        <v>179</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="3"/>
+        <v>1.11731843575419E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>178</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f>(B17-C17)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17/B17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>178</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>177</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <f>(B18-C18)/180</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18/B18</f>
+        <v>2.2598870056497175E-2</v>
+      </c>
+      <c r="I18">
+        <v>174</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8735632183908046E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <f>(B19-C19)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19/B19</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I19">
+        <v>177</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>172</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(B20-C20)/180</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20/B20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>178</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <f>(B21-C21)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F21" s="6">
+        <f>D21/B21</f>
+        <v>2.8089887640449437E-2</v>
+      </c>
+      <c r="I21">
+        <v>169</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7751479289940829E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>172</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <f>(B22-C22)/180</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F22" s="6">
+        <f>D22/B22</f>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="I22">
+        <v>177</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="3"/>
+        <v>9.03954802259887E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>178</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <f>(B23-C23)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F23" s="6">
+        <f>D23/B23</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="I23">
+        <v>179</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="3"/>
+        <v>1.11731843575419E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>174</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f>(B24-C24)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F24" s="6">
+        <f>D24/B24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>180</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>179</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6">
+        <f>(B25-C25)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F25" s="6">
+        <f>D25/B25</f>
+        <v>3.3519553072625698E-2</v>
+      </c>
+      <c r="I25">
+        <v>176</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>174</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6">
+        <f>(B26-C26)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F26" s="6">
+        <f>D26/B26</f>
+        <v>7.4712643678160925E-2</v>
+      </c>
+      <c r="I26">
+        <v>172</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>180</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <f>(B27-C27)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <f>D27/B27</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I27">
+        <v>179</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3519553072625698E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>177</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6">
+        <f>(B28-C28)/180</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F28" s="6">
+        <f>D28/B28</f>
+        <v>2.2598870056497175E-2</v>
+      </c>
+      <c r="I28">
+        <v>178</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>176</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <f>(B29-C29)/180</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="F29" s="6">
+        <f>D29/B29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>177</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1299435028248588E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>180</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <f>(B30-C30)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <f>D30/B30</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I30">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>174</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <f>(B31-C31)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F31" s="6">
+        <f>D31/B31</f>
+        <v>2.8735632183908046E-2</v>
+      </c>
+      <c r="I31">
+        <v>177</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1299435028248588E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>177</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <f>(B32-C32)/180</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F32" s="6">
+        <f>D32/B32</f>
+        <v>1.1299435028248588E-2</v>
+      </c>
+      <c r="I32">
+        <v>172</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="3"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>180</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <f>(B33-C33)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <f>D33/B33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>178</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>174</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <f>(B34-C34)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F34" s="6">
+        <f>D34/B34</f>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="I34">
+        <v>178</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="3"/>
+        <v>5.6179775280898875E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>179</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f>(B35-C35)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F35" s="6">
+        <f>D35/B35</f>
+        <v>5.5865921787709499E-3</v>
+      </c>
+      <c r="I35">
+        <v>179</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>180</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6">
+        <f>(B36-C36)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <f>D36/B36</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I36">
+        <v>179</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="3"/>
+        <v>1.11731843575419E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>174</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <f>(B37-C37)/180</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F37" s="6">
+        <f>D37/B37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>180</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>178</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <f>(B38-C38)/180</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="F38" s="6">
+        <f>D38/B38</f>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="I38">
+        <v>174</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>172</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6">
+        <f>(B39-C39)/180</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="F39" s="6">
+        <f>D39/B39</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="I39">
+        <v>177</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>179</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <f>(B40-C40)/180</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F40" s="6">
+        <f>D40/B40</f>
+        <v>5.5865921787709499E-3</v>
+      </c>
+      <c r="I40">
+        <v>180</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>180</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <f>(B41-C41)/180</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <f>D41/B41</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I41">
+        <v>174</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8735632183908046E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>177</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6">
+        <f>(B42-C42)/180</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F42" s="6">
+        <f>D42/B42</f>
+        <v>2.8248587570621469E-2</v>
+      </c>
+      <c r="I42">
+        <v>170</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="E43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B4:B42)</f>
+        <v>180</v>
+      </c>
+      <c r="C44">
+        <f>MAX(C4:C42)</f>
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <f>MAX(D4:D42)</f>
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <f>MAX(E4:E42)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <f>MAX(F4:F42)</f>
+        <v>8.4269662921348312E-2</v>
+      </c>
+      <c r="I44">
+        <f>MAX(I4:I42)</f>
+        <v>180</v>
+      </c>
+      <c r="J44">
+        <f>MAX(J4:J42)</f>
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <f>MAX(K4:K42)</f>
+        <v>16</v>
+      </c>
+      <c r="L44" s="6">
+        <f>MAX(L4:L42)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="6">
+        <f>MAX(M4:M42)</f>
+        <v>9.03954802259887E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <f>MIN(B4:B42)</f>
+        <v>153</v>
+      </c>
+      <c r="C45">
+        <f>MIN(C4:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>MIN(D4:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <f>MIN(E4:E42)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="6">
+        <f>MIN(F4:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>MIN(I4:I42)</f>
+        <v>169</v>
+      </c>
+      <c r="J45">
+        <f>MIN(J4:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>MIN(K4:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <f>MIN(L4:L42)</f>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="M45" s="6">
+        <f>MIN(M4:M42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="13">
+        <f>AVERAGE(B4:B42)</f>
+        <v>176.25641025641025</v>
+      </c>
+      <c r="C46" s="13">
+        <f>AVERAGE(C4:C42)</f>
+        <v>3.7435897435897436</v>
+      </c>
+      <c r="D46" s="13">
+        <f>AVERAGE(D4:D42)</f>
+        <v>2.8974358974358974</v>
+      </c>
+      <c r="E46" s="6">
+        <f>AVERAGE(E4:E42)</f>
+        <v>0.95840455840455829</v>
+      </c>
+      <c r="F46" s="6">
+        <f>AVERAGE(F4:F42)</f>
+        <v>1.6450529467536674E-2</v>
+      </c>
+      <c r="I46" s="13">
+        <f>AVERAGE(I4:I42)</f>
+        <v>176.84615384615384</v>
+      </c>
+      <c r="J46" s="13">
+        <f>AVERAGE(J4:J42)</f>
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="K46" s="13">
+        <f>AVERAGE(K4:K42)</f>
+        <v>3.2820512820512819</v>
+      </c>
+      <c r="L46" s="6">
+        <f>AVERAGE(L4:L42)</f>
+        <v>0.96495726495726453</v>
+      </c>
+      <c r="M46" s="6">
+        <f>AVERAGE(M4:M42)</f>
+        <v>1.8553484810524122E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
+++ b/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data-Analytics-Projects/Week of July 9 2023/Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F999EE-6450-1240-BAD8-5AF0A521E839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABCB60A-23BB-F544-8837-A52185A20229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +226,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
@@ -233,10 +234,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,21 +284,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,80 +618,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EDD961-275F-3A43-9D6B-5E1DFE90AE83}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -673,1756 +713,1803 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2"/>
+      <c r="C4">
         <v>180</v>
       </c>
-      <c r="C4">
-        <f>180-B4</f>
-        <v>0</v>
-      </c>
       <c r="D4">
+        <f>180-C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <f>(B4-C4)/180</f>
-        <v>1</v>
-      </c>
       <c r="F4" s="6">
-        <f>D4/B4</f>
+        <f t="shared" ref="F4:F42" si="0">(C4-D4)/180</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G42" si="1">E4/C4</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>177</v>
       </c>
-      <c r="J4">
-        <f>180-I4</f>
+      <c r="K4">
+        <f>180-J4</f>
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6">
-        <f>(I4-J4)/180</f>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6">
+        <f>(J4-K4)/180</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M4" s="6">
-        <f>K4/I4</f>
+      <c r="N4" s="6">
+        <f>L4/J4</f>
         <v>1.1299435028248588E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2"/>
+      <c r="C5">
         <v>153</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C42" si="0">180-B5</f>
+      <c r="D5">
+        <f t="shared" ref="D5:D42" si="2">180-C5</f>
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
-        <f>(B5-C5)/180</f>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5/B5</f>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>179</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J42" si="1">180-I5</f>
-        <v>1</v>
-      </c>
       <c r="K5">
+        <f t="shared" ref="K5:K42" si="3">180-J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:L42" si="2">(I5-J5)/180</f>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M42" si="4">(J5-K5)/180</f>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" ref="M5:M42" si="3">K5/I5</f>
+      <c r="N5" s="6">
+        <f t="shared" ref="N5:N42" si="5">L5/J5</f>
         <v>2.23463687150838E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>176</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="D6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
-        <f>(B6-C6)/180</f>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="F6" s="6">
-        <f>D6/B6</f>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>174</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
+      <c r="K6">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6" s="6">
-        <f t="shared" si="2"/>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="3"/>
+      <c r="N6" s="6">
+        <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2"/>
+      <c r="C7">
         <v>178</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <f>(B7-C7)/180</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F7" s="6">
-        <f>D7/B7</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>180</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2"/>
+      <c r="C8">
         <v>179</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <f>(B8-C8)/180</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="F8" s="6">
-        <f>D8/B8</f>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>174</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
+      <c r="K8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="2"/>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="3"/>
+      <c r="N8" s="6">
+        <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>180</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <f>(B9-C9)/180</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <f>D9/B9</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>178</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="3"/>
+      <c r="N9" s="6">
+        <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2"/>
+      <c r="C10">
         <v>168</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="D10">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <f>(B10-C10)/180</f>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F10" s="6">
-        <f>D10/B10</f>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>179</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="3"/>
+      <c r="N10" s="6">
+        <f t="shared" si="5"/>
         <v>5.5865921787709499E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2"/>
+      <c r="C11">
         <v>178</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11" s="6">
-        <f>(B11-C11)/180</f>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11/B11</f>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>177</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
+      <c r="K11">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="2"/>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N11" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2"/>
+      <c r="C12">
         <v>174</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <f>(B12-C12)/180</f>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12/B12</f>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>180</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="L12" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="M12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2"/>
+      <c r="C13">
         <v>180</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <f>(B13-C13)/180</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <f>D13/B13</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>176</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
+      <c r="K13">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="2"/>
+      <c r="M13" s="6">
+        <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="3"/>
+      <c r="N13" s="6">
+        <f t="shared" si="5"/>
         <v>1.7045454545454544E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2"/>
+      <c r="C14">
         <v>174</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
+      <c r="D14">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <f>(B14-C14)/180</f>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14/B14</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>174</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
+      <c r="K14">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="L14" s="6">
-        <f t="shared" si="2"/>
+      <c r="M14" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="3"/>
+      <c r="N14" s="6">
+        <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2"/>
+      <c r="C15">
         <v>179</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <f>(B15-C15)/180</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="F15" s="6">
-        <f>D15/B15</f>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>178</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="L15" s="6">
-        <f t="shared" si="2"/>
+      <c r="M15" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="3"/>
+      <c r="N15" s="6">
+        <f t="shared" si="5"/>
         <v>1.6853932584269662E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2"/>
+      <c r="C16">
         <v>176</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="D16">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="E16" s="6">
-        <f>(B16-C16)/180</f>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="F16" s="6">
-        <f>D16/B16</f>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
         <v>2.8409090909090908E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>179</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" si="3"/>
+      <c r="N16" s="6">
+        <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2"/>
+      <c r="C17">
         <v>178</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <f>(B17-C17)/180</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F17" s="6">
-        <f>D17/B17</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>178</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2"/>
+      <c r="C18">
         <v>177</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="E18" s="6">
-        <f>(B18-C18)/180</f>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="F18" s="6">
-        <f>D18/B18</f>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>174</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
+      <c r="K18">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="2"/>
+      <c r="M18" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" si="3"/>
+      <c r="N18" s="6">
+        <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2"/>
+      <c r="C19">
         <v>180</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <f>(B19-C19)/180</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="F19" s="6">
-        <f>D19/B19</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>177</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
+      <c r="K19">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19" s="6">
-        <f t="shared" si="2"/>
+      <c r="M19" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="3"/>
+      <c r="N19" s="6">
+        <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2"/>
+      <c r="C20">
         <v>172</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
+      <c r="D20">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <f>(B20-C20)/180</f>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="F20" s="6">
-        <f>D20/B20</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>178</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" si="3"/>
+      <c r="N20" s="6">
+        <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2"/>
+      <c r="C21">
         <v>178</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="E21" s="6">
-        <f>(B21-C21)/180</f>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F21" s="6">
-        <f>D21/B21</f>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>169</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
+      <c r="K21">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="L21" s="6">
-        <f t="shared" si="2"/>
+      <c r="M21" s="6">
+        <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" si="3"/>
+      <c r="N21" s="6">
+        <f t="shared" si="5"/>
         <v>1.7751479289940829E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2"/>
+      <c r="C22">
         <v>172</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
+      <c r="D22">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <f>(B22-C22)/180</f>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="F22" s="6">
-        <f>D22/B22</f>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>177</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
+      <c r="K22">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>16</v>
       </c>
-      <c r="L22" s="6">
-        <f t="shared" si="2"/>
+      <c r="M22" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M22" s="6">
-        <f t="shared" si="3"/>
+      <c r="N22" s="6">
+        <f t="shared" si="5"/>
         <v>9.03954802259887E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2"/>
+      <c r="C23">
         <v>178</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <f>(B23-C23)/180</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F23" s="6">
-        <f>D23/B23</f>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>179</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="3"/>
+      <c r="N23" s="6">
+        <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2"/>
+      <c r="C24">
         <v>174</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
+      <c r="D24">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <f>(B24-C24)/180</f>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F24" s="6">
-        <f>D24/B24</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>180</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>5</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="M24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2"/>
+      <c r="C25">
         <v>179</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="E25" s="6">
-        <f>(B25-C25)/180</f>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="F25" s="6">
-        <f>D25/B25</f>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>176</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="2"/>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2"/>
+      <c r="C26">
         <v>174</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
+      <c r="D26">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>13</v>
       </c>
-      <c r="E26" s="6">
-        <f>(B26-C26)/180</f>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F26" s="6">
-        <f>D26/B26</f>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
         <v>7.4712643678160925E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>172</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
+      <c r="K26">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="2"/>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="3"/>
+      <c r="N26" s="6">
+        <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2"/>
+      <c r="C27">
         <v>180</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6">
-        <f>(B27-C27)/180</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
       </c>
       <c r="F27" s="6">
-        <f>D27/B27</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>179</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>6</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="2"/>
+      <c r="M27" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
+      <c r="N27" s="6">
+        <f t="shared" si="5"/>
         <v>3.3519553072625698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2"/>
+      <c r="C28">
         <v>177</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="D28">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E28" s="6">
-        <f>(B28-C28)/180</f>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="F28" s="6">
-        <f>D28/B28</f>
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>178</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28" s="6">
-        <f t="shared" si="2"/>
+      <c r="M28" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="3"/>
+      <c r="N28" s="6">
+        <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2"/>
+      <c r="C29">
         <v>176</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
+      <c r="D29">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <f>(B29-C29)/180</f>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="F29" s="6">
-        <f>D29/B29</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>177</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
+      <c r="K29">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="2"/>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="3"/>
+      <c r="N29" s="6">
+        <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2"/>
+      <c r="C30">
         <v>180</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
-        <f>(B30-C30)/180</f>
-        <v>1</v>
-      </c>
       <c r="F30" s="6">
-        <f>D30/B30</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>180</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>6</v>
       </c>
-      <c r="L30" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="M30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2"/>
+      <c r="C31">
         <v>174</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
+      <c r="D31">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="E31" s="6">
-        <f>(B31-C31)/180</f>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F31" s="6">
-        <f>D31/B31</f>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>177</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
+      <c r="K31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="2"/>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="3"/>
+      <c r="N31" s="6">
+        <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2"/>
+      <c r="C32">
         <v>177</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
+      <c r="D32">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <f>(B32-C32)/180</f>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="F32" s="6">
-        <f>D32/B32</f>
+      <c r="G32" s="6">
+        <f t="shared" si="1"/>
         <v>1.1299435028248588E-2</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>172</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
+      <c r="K32">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="L32" s="6">
-        <f t="shared" si="2"/>
+      <c r="M32" s="6">
+        <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="3"/>
+      <c r="N32" s="6">
+        <f t="shared" si="5"/>
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2"/>
+      <c r="C33">
         <v>180</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <f>(B33-C33)/180</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33" s="6">
-        <f>D33/B33</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>178</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K33">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="L33" s="6">
-        <f t="shared" si="2"/>
+      <c r="M33" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="3"/>
+      <c r="N33" s="6">
+        <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2"/>
+      <c r="C34">
         <v>174</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
+      <c r="D34">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6">
-        <f>(B34-C34)/180</f>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F34" s="6">
-        <f>D34/B34</f>
+      <c r="G34" s="6">
+        <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>178</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="3"/>
+      <c r="N34" s="6">
+        <f t="shared" si="5"/>
         <v>5.6179775280898875E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2"/>
+      <c r="C35">
         <v>179</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <f>(B35-C35)/180</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="F35" s="6">
-        <f>D35/B35</f>
+      <c r="G35" s="6">
+        <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>179</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2"/>
+      <c r="C36">
         <v>180</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="E36" s="6">
-        <f>(B36-C36)/180</f>
-        <v>1</v>
-      </c>
       <c r="F36" s="6">
-        <f>D36/B36</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>179</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" si="3"/>
+      <c r="N36" s="6">
+        <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2"/>
+      <c r="C37">
         <v>174</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
+      <c r="D37">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <f>(B37-C37)/180</f>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="F37" s="6">
-        <f>D37/B37</f>
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="G37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>180</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="L37" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="M37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="5"/>
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2"/>
+      <c r="C38">
         <v>178</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <f>(B38-C38)/180</f>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="F38" s="6">
-        <f>D38/B38</f>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>174</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
+      <c r="K38">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <f t="shared" si="2"/>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M38" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2"/>
+      <c r="C39">
         <v>172</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
+      <c r="D39">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="E39" s="6">
-        <f>(B39-C39)/180</f>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="F39" s="6">
-        <f>D39/B39</f>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>177</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
+      <c r="K39">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>6</v>
       </c>
-      <c r="L39" s="6">
-        <f t="shared" si="2"/>
+      <c r="M39" s="6">
+        <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="M39" s="6">
-        <f t="shared" si="3"/>
+      <c r="N39" s="6">
+        <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2"/>
+      <c r="C40">
         <v>179</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6">
-        <f>(B40-C40)/180</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="F40" s="6">
-        <f>D40/B40</f>
+      <c r="G40" s="6">
+        <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>180</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2"/>
+      <c r="C41">
         <v>180</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6">
-        <f>(B41-C41)/180</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41" s="6">
-        <f>D41/B41</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>174</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
+      <c r="K41">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="L41" s="6">
-        <f t="shared" si="2"/>
+      <c r="M41" s="6">
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="M41" s="6">
-        <f t="shared" si="3"/>
+      <c r="N41" s="6">
+        <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2"/>
+      <c r="C42">
         <v>177</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+      <c r="D42">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>5</v>
       </c>
-      <c r="E42" s="6">
-        <f>(B42-C42)/180</f>
+      <c r="F42" s="6">
+        <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="F42" s="6">
-        <f>D42/B42</f>
+      <c r="G42" s="6">
+        <f t="shared" si="1"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>170</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="1"/>
+      <c r="K42">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6">
-        <f t="shared" si="2"/>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="M42" s="6">
-        <f t="shared" si="3"/>
+      <c r="N42" s="6">
+        <f t="shared" si="5"/>
         <v>5.8823529411764705E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="E43" s="6"/>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="B43" s="1"/>
+      <c r="F43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <f>MAX(B4:B42)</f>
-        <v>180</v>
-      </c>
+      <c r="B44" s="12"/>
       <c r="C44">
         <f>MAX(C4:C42)</f>
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D44">
         <f>MAX(D4:D42)</f>
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <f>MAX(E4:E42)</f>
         <v>15</v>
-      </c>
-      <c r="E44" s="6">
-        <f>MAX(E4:E42)</f>
-        <v>1</v>
       </c>
       <c r="F44" s="6">
         <f>MAX(F4:F42)</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <f>MAX(G4:G42)</f>
         <v>8.4269662921348312E-2</v>
-      </c>
-      <c r="I44">
-        <f>MAX(I4:I42)</f>
-        <v>180</v>
       </c>
       <c r="J44">
         <f>MAX(J4:J42)</f>
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="K44">
         <f>MAX(K4:K42)</f>
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <f>MAX(L4:L42)</f>
         <v>16</v>
-      </c>
-      <c r="L44" s="6">
-        <f>MAX(L4:L42)</f>
-        <v>1</v>
       </c>
       <c r="M44" s="6">
         <f>MAX(M4:M42)</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="6">
+        <f>MAX(N4:N42)</f>
         <v>9.03954802259887E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <f>MIN(B4:B42)</f>
-        <v>153</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f>MIN(C4:C42)</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D45">
         <f>MIN(D4:D42)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <f>MIN(E4:E42)</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6">
         <f>MIN(F4:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f>MIN(I4:I42)</f>
-        <v>169</v>
+        <v>0.7</v>
+      </c>
+      <c r="G45" s="6">
+        <f>MIN(G4:G42)</f>
+        <v>0</v>
       </c>
       <c r="J45">
         <f>MIN(J4:J42)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="K45">
         <f>MIN(K4:K42)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45">
         <f>MIN(L4:L42)</f>
-        <v>0.87777777777777777</v>
+        <v>0</v>
       </c>
       <c r="M45" s="6">
         <f>MIN(M4:M42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="N45" s="6">
+        <f>MIN(N4:N42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="13">
-        <f>AVERAGE(B4:B42)</f>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11">
+        <f>AVERAGE(C4:C42)</f>
         <v>176.25641025641025</v>
       </c>
-      <c r="C46" s="13">
-        <f>AVERAGE(C4:C42)</f>
+      <c r="D46" s="11">
+        <f>AVERAGE(D4:D42)</f>
         <v>3.7435897435897436</v>
       </c>
-      <c r="D46" s="13">
-        <f>AVERAGE(D4:D42)</f>
+      <c r="E46" s="11">
+        <f>AVERAGE(E4:E42)</f>
         <v>2.8974358974358974</v>
-      </c>
-      <c r="E46" s="6">
-        <f>AVERAGE(E4:E42)</f>
-        <v>0.95840455840455829</v>
       </c>
       <c r="F46" s="6">
         <f>AVERAGE(F4:F42)</f>
+        <v>0.95840455840455829</v>
+      </c>
+      <c r="G46" s="6">
+        <f>AVERAGE(G4:G42)</f>
         <v>1.6450529467536674E-2</v>
       </c>
-      <c r="I46" s="13">
-        <f>AVERAGE(I4:I42)</f>
+      <c r="J46" s="11">
+        <f>AVERAGE(J4:J42)</f>
         <v>176.84615384615384</v>
       </c>
-      <c r="J46" s="13">
-        <f>AVERAGE(J4:J42)</f>
+      <c r="K46" s="11">
+        <f>AVERAGE(K4:K42)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="K46" s="13">
-        <f>AVERAGE(K4:K42)</f>
+      <c r="L46" s="11">
+        <f>AVERAGE(L4:L42)</f>
         <v>3.2820512820512819</v>
-      </c>
-      <c r="L46" s="6">
-        <f>AVERAGE(L4:L42)</f>
-        <v>0.96495726495726453</v>
       </c>
       <c r="M46" s="6">
         <f>AVERAGE(M4:M42)</f>
+        <v>0.96495726495726453</v>
+      </c>
+      <c r="N46" s="6">
+        <f>AVERAGE(N4:N42)</f>
         <v>1.8553484810524122E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
+++ b/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data-Analytics-Projects/Week of July 9 2023/Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABCB60A-23BB-F544-8837-A52185A20229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FFBECD-3E35-8E47-9402-583FD36E4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,13 +263,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,16 +339,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,33 +677,33 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
@@ -655,10 +711,10 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="14" t="s">
         <v>44</v>
       </c>
@@ -670,36 +726,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="4"/>
@@ -720,39 +776,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>180</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <f>180-C4</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="21">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F42" si="0">(C4-D4)/180</f>
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="25">
         <f t="shared" ref="G4:G42" si="1">E4/C4</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="17">
         <v>177</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="19">
         <f>180-J4</f>
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="21">
+        <v>2</v>
+      </c>
+      <c r="M4" s="23">
         <f>(J4-K4)/180</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="25">
         <f>L4/J4</f>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -762,39 +818,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5">
+      <c r="C5" s="17">
         <v>153</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <f t="shared" ref="D5:D42" si="2">180-C5</f>
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="23">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="25">
         <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <v>179</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="19">
         <f t="shared" ref="K5:K42" si="3">180-J5</f>
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="21">
         <v>4</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="23">
         <f t="shared" ref="M5:M42" si="4">(J5-K5)/180</f>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="25">
         <f t="shared" ref="N5:N42" si="5">L5/J5</f>
         <v>2.23463687150838E-2</v>
       </c>
@@ -804,39 +860,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>176</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="17">
         <v>174</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="21">
         <v>4</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="25">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -846,39 +902,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>178</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>180</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="K7" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>2</v>
+      </c>
+      <c r="M7" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -888,39 +944,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>179</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="25">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="17">
         <v>174</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="21">
         <v>4</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="25">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -930,39 +986,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>180</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="D9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="17">
         <v>178</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="K9" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="21">
+        <v>2</v>
+      </c>
+      <c r="M9" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="25">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -972,39 +1028,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>168</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="21">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="25">
         <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="17">
         <v>179</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="K10" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="25">
         <f t="shared" si="5"/>
         <v>5.5865921787709499E-3</v>
       </c>
@@ -1014,39 +1070,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11">
+      <c r="C11" s="17">
         <v>178</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
         <v>15</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="25">
         <f t="shared" si="1"/>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="17">
         <v>177</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1056,39 +1112,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12">
+      <c r="C12" s="17">
         <v>174</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="21">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="25">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="17">
         <v>180</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
         <v>6</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="25">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1098,39 +1154,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13">
+      <c r="C13" s="17">
         <v>180</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="D13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="17">
         <v>176</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="21">
         <v>3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="23">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="25">
         <f t="shared" si="5"/>
         <v>1.7045454545454544E-2</v>
       </c>
@@ -1140,39 +1196,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14">
+      <c r="C14" s="17">
         <v>174</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
         <v>174</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="21">
         <v>5</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="25">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1182,39 +1238,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>179</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="25">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="17">
         <v>178</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="21">
         <v>3</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="25">
         <f t="shared" si="5"/>
         <v>1.6853932584269662E-2</v>
       </c>
@@ -1224,39 +1280,39 @@
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16">
+      <c r="C16" s="17">
         <v>176</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="21">
         <v>5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="23">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="25">
         <f t="shared" si="1"/>
         <v>2.8409090909090908E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="17">
         <v>179</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="K16" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <v>2</v>
+      </c>
+      <c r="M16" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="25">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1266,39 +1322,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17">
+      <c r="C17" s="17">
         <v>178</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
         <v>178</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="K17" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1308,39 +1364,39 @@
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18">
+      <c r="C18" s="17">
         <v>177</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="21">
         <v>4</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="23">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="25">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="17">
         <v>174</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="21">
         <v>5</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="25">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1350,39 +1406,39 @@
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19">
+      <c r="C19" s="17">
         <v>180</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="D19" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="25">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="17">
         <v>177</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="21">
         <v>6</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="25">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -1392,39 +1448,39 @@
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20">
+      <c r="C20" s="17">
         <v>172</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
         <v>178</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="K20" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="21">
+        <v>2</v>
+      </c>
+      <c r="M20" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="25">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1434,39 +1490,39 @@
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21">
+      <c r="C21" s="17">
         <v>178</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
         <v>5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="25">
         <f t="shared" si="1"/>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="17">
         <v>169</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="19">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="21">
         <v>3</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="23">
         <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="25">
         <f t="shared" si="5"/>
         <v>1.7751479289940829E-2</v>
       </c>
@@ -1476,39 +1532,39 @@
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22">
+      <c r="C22" s="17">
         <v>172</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="23">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="25">
         <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="17">
         <v>177</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="21">
         <v>16</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="25">
         <f t="shared" si="5"/>
         <v>9.03954802259887E-2</v>
       </c>
@@ -1518,39 +1574,39 @@
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23">
+      <c r="C23" s="17">
         <v>178</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D23" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="25">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="17">
         <v>179</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="K23" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <v>2</v>
+      </c>
+      <c r="M23" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="25">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1560,39 +1616,39 @@
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24">
+      <c r="C24" s="17">
         <v>174</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
         <v>180</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
         <v>5</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="25">
         <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1602,39 +1658,39 @@
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25">
+      <c r="C25" s="17">
         <v>179</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
         <v>6</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="25">
         <f t="shared" si="1"/>
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="17">
         <v>176</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1644,39 +1700,39 @@
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26">
+      <c r="C26" s="17">
         <v>174</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="21">
         <v>13</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>7.4712643678160925E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="17">
         <v>172</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="19">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="L26" s="21">
+        <v>2</v>
+      </c>
+      <c r="M26" s="23">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="25">
         <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
@@ -1686,39 +1742,39 @@
         <v>35</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27">
+      <c r="C27" s="17">
         <v>180</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="D27" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="25">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="17">
         <v>179</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="21">
         <v>6</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="25">
         <f t="shared" si="5"/>
         <v>3.3519553072625698E-2</v>
       </c>
@@ -1728,39 +1784,39 @@
         <v>25</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28">
+      <c r="C28" s="17">
         <v>177</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="21">
         <v>4</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="23">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="25">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="17">
         <v>178</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="21">
         <v>4</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="25">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -1770,39 +1826,39 @@
         <v>26</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29">
+      <c r="C29" s="17">
         <v>176</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="G29" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
         <v>177</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="L29" s="21">
+        <v>2</v>
+      </c>
+      <c r="M29" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="25">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -1812,39 +1868,39 @@
         <v>27</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30">
+      <c r="C30" s="17">
         <v>180</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
         <v>5</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="25">
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="17">
         <v>180</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
         <v>6</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="6">
+      <c r="M30" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="25">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1854,39 +1910,39 @@
         <v>28</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31">
+      <c r="C31" s="17">
         <v>174</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="21">
         <v>5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="25">
         <f t="shared" si="1"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="17">
         <v>177</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="L31" s="21">
+        <v>2</v>
+      </c>
+      <c r="M31" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="25">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -1896,39 +1952,39 @@
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>177</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="21">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="25">
         <f t="shared" si="1"/>
         <v>1.1299435028248588E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="17">
         <v>172</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="19">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="21">
         <v>4</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="23">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="25">
         <f t="shared" si="5"/>
         <v>2.3255813953488372E-2</v>
       </c>
@@ -1938,39 +1994,39 @@
         <v>36</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33">
+      <c r="C33" s="17">
         <v>180</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="D33" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
         <v>178</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="21">
         <v>4</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="25">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -1980,39 +2036,39 @@
         <v>37</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34">
+      <c r="C34" s="17">
         <v>174</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="21">
+        <v>2</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="25">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="17">
         <v>178</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="6">
+      <c r="K34" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1</v>
+      </c>
+      <c r="M34" s="23">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="25">
         <f t="shared" si="5"/>
         <v>5.6179775280898875E-3</v>
       </c>
@@ -2022,39 +2078,39 @@
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35">
+      <c r="C35" s="17">
         <v>179</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="D35" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="25">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="17">
         <v>179</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
+      <c r="K35" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2064,39 +2120,39 @@
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36">
+      <c r="C36" s="17">
         <v>180</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
         <v>3</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="25">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="17">
         <v>179</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="K36" s="19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="21">
+        <v>2</v>
+      </c>
+      <c r="M36" s="23">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="25">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -2106,39 +2162,39 @@
         <v>31</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37">
+      <c r="C37" s="17">
         <v>174</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="G37" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
         <v>180</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="21">
         <v>4</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="6">
+      <c r="M37" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="25">
         <f t="shared" si="5"/>
         <v>2.2222222222222223E-2</v>
       </c>
@@ -2148,39 +2204,39 @@
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38">
+      <c r="C38" s="17">
         <v>178</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="D38" s="19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="21">
+        <v>2</v>
+      </c>
+      <c r="F38" s="23">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="25">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="17">
         <v>174</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="L38" s="21">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2190,39 +2246,39 @@
         <v>33</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39">
+      <c r="C39" s="17">
         <v>172</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="21">
         <v>4</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="23">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="25">
         <f t="shared" si="1"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="17">
         <v>177</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="21">
         <v>6</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="23">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="25">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -2232,39 +2288,39 @@
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40">
+      <c r="C40" s="17">
         <v>179</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="D40" s="19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="25">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="17">
         <v>180</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="6">
+      <c r="K40" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="21">
+        <v>2</v>
+      </c>
+      <c r="M40" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="25">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -2274,39 +2330,39 @@
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41">
+      <c r="C41" s="17">
         <v>180</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="D41" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="25">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="17">
         <v>174</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="19">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="21">
         <v>5</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="23">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="25">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -2316,39 +2372,39 @@
         <v>40</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42">
+      <c r="C42" s="17">
         <v>177</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="19">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="21">
         <v>5</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="23">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="25">
         <f t="shared" si="1"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="17">
         <v>170</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="19">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="L42" s="21">
+        <v>1</v>
+      </c>
+      <c r="M42" s="23">
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="25">
         <f t="shared" si="5"/>
         <v>5.8823529411764705E-3</v>
       </c>
@@ -2360,10 +2416,10 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="9"/>
       <c r="C44">
         <f>MAX(C4:C42)</f>
         <v>180</v>
@@ -2406,10 +2462,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="10"/>
       <c r="C45">
         <f>MIN(C4:C42)</f>
         <v>153</v>
@@ -2451,48 +2507,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="11">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27">
         <f>AVERAGE(C4:C42)</f>
         <v>176.25641025641025</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="27">
         <f>AVERAGE(D4:D42)</f>
         <v>3.7435897435897436</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="27">
         <f>AVERAGE(E4:E42)</f>
         <v>2.8974358974358974</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="28">
         <f>AVERAGE(F4:F42)</f>
         <v>0.95840455840455829</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="28">
         <f>AVERAGE(G4:G42)</f>
         <v>1.6450529467536674E-2</v>
       </c>
-      <c r="J46" s="11">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="27">
         <f>AVERAGE(J4:J42)</f>
         <v>176.84615384615384</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="27">
         <f>AVERAGE(K4:K42)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="27">
         <f>AVERAGE(L4:L42)</f>
         <v>3.2820512820512819</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="28">
         <f>AVERAGE(M4:M42)</f>
         <v>0.96495726495726453</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="28">
         <f>AVERAGE(N4:N42)</f>
         <v>1.8553484810524122E-2</v>
       </c>

--- a/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
+++ b/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data-Analytics-Projects/Week of July 9 2023/Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FFBECD-3E35-8E47-9402-583FD36E4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E26E8E-7A54-8B4B-9E4F-B246F2684482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
   </bookViews>
@@ -317,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,11 +325,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,13 +419,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -356,10 +432,24 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +767,7 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,64 +788,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="14" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="20" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="4"/>
@@ -776,39 +866,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>180</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <f>180-C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>5</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F42" si="0">(C4-D4)/180</f>
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G42" si="1">E4/C4</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>177</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <f>180-J4</f>
         <v>3</v>
       </c>
-      <c r="L4" s="21">
-        <v>2</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="L4" s="17">
+        <v>2</v>
+      </c>
+      <c r="M4" s="19">
         <f>(J4-K4)/180</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <f>L4/J4</f>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -818,39 +908,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>153</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <f t="shared" ref="D5:D42" si="2">180-C5</f>
         <v>27</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="21">
         <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>179</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <f t="shared" ref="K5:K42" si="3">180-J5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="17">
         <v>4</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="19">
         <f t="shared" ref="M5:M42" si="4">(J5-K5)/180</f>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="21">
         <f t="shared" ref="N5:N42" si="5">L5/J5</f>
         <v>2.23463687150838E-2</v>
       </c>
@@ -860,39 +950,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>176</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>174</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="17">
         <v>4</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="21">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -902,39 +992,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>178</v>
       </c>
-      <c r="D7" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="D7" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G7" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>180</v>
       </c>
-      <c r="K7" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <v>2</v>
-      </c>
-      <c r="M7" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="K7" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="21">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -944,39 +1034,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <v>179</v>
       </c>
-      <c r="D8" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="D8" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="21">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>174</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="17">
         <v>4</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="21">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -986,39 +1076,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>180</v>
       </c>
-      <c r="D9" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="D9" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>178</v>
       </c>
-      <c r="K9" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="21">
-        <v>2</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="K9" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="21">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1028,39 +1118,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>168</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>179</v>
       </c>
-      <c r="K10" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="21">
-        <v>1</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="K10" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="21">
         <f t="shared" si="5"/>
         <v>5.5865921787709499E-3</v>
       </c>
@@ -1070,39 +1160,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>178</v>
       </c>
-      <c r="D11" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="D11" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
         <v>15</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <f t="shared" si="1"/>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>177</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L11" s="21">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1112,39 +1202,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>174</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E12" s="21">
-        <v>2</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>180</v>
       </c>
-      <c r="K12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <v>6</v>
       </c>
-      <c r="M12" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="M12" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="21">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1154,39 +1244,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>180</v>
       </c>
-      <c r="D13" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="D13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>176</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="17">
         <v>3</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="19">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="21">
         <f t="shared" si="5"/>
         <v>1.7045454545454544E-2</v>
       </c>
@@ -1196,39 +1286,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>174</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G14" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="G14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <v>174</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="17">
         <v>5</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="21">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1238,39 +1328,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>179</v>
       </c>
-      <c r="D15" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="D15" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="21">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>178</v>
       </c>
-      <c r="K15" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="21">
+      <c r="K15" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="17">
         <v>3</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="21">
         <f t="shared" si="5"/>
         <v>1.6853932584269662E-2</v>
       </c>
@@ -1280,39 +1370,39 @@
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>176</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>5</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="21">
         <f t="shared" si="1"/>
         <v>2.8409090909090908E-2</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>179</v>
       </c>
-      <c r="K16" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="21">
-        <v>2</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="K16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>2</v>
+      </c>
+      <c r="M16" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="21">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1322,39 +1412,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>178</v>
       </c>
-      <c r="D17" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G17" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="G17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <v>178</v>
       </c>
-      <c r="K17" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L17" s="21">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
+      <c r="K17" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1364,39 +1454,39 @@
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>177</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>4</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="21">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>174</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="17">
         <v>5</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="21">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1406,39 +1496,39 @@
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>180</v>
       </c>
-      <c r="D19" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="D19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="13">
         <v>177</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="17">
         <v>6</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="21">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -1448,39 +1538,39 @@
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>172</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G20" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="G20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <v>178</v>
       </c>
-      <c r="K20" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="21">
-        <v>2</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="17">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="21">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1490,39 +1580,39 @@
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>178</v>
       </c>
-      <c r="D21" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="D21" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="17">
         <v>5</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="21">
         <f t="shared" si="1"/>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="13">
         <v>169</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="15">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="17">
         <v>3</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="19">
         <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="21">
         <f t="shared" si="5"/>
         <v>1.7751479289940829E-2</v>
       </c>
@@ -1532,39 +1622,39 @@
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>172</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E22" s="21">
-        <v>2</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="21">
         <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="13">
         <v>177</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="17">
         <v>16</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="21">
         <f t="shared" si="5"/>
         <v>9.03954802259887E-2</v>
       </c>
@@ -1574,39 +1664,39 @@
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17">
+      <c r="C23" s="13">
         <v>178</v>
       </c>
-      <c r="D23" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="21">
-        <v>2</v>
-      </c>
-      <c r="F23" s="23">
+      <c r="D23" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="21">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="13">
         <v>179</v>
       </c>
-      <c r="K23" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="21">
-        <v>2</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="K23" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
+        <v>2</v>
+      </c>
+      <c r="M23" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="21">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1616,39 +1706,39 @@
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17">
+      <c r="C24" s="13">
         <v>174</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G24" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="G24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>180</v>
       </c>
-      <c r="K24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="K24" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
         <v>5</v>
       </c>
-      <c r="M24" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="25">
+      <c r="M24" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="21">
         <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1658,39 +1748,39 @@
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="17">
+      <c r="C25" s="13">
         <v>179</v>
       </c>
-      <c r="D25" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
+      <c r="D25" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
         <v>6</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="21">
         <f t="shared" si="1"/>
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="13">
         <v>176</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L25" s="21">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1700,39 +1790,39 @@
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
         <v>174</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="17">
         <v>13</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="21">
         <f t="shared" si="1"/>
         <v>7.4712643678160925E-2</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="13">
         <v>172</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L26" s="21">
-        <v>2</v>
-      </c>
-      <c r="M26" s="23">
+      <c r="L26" s="17">
+        <v>2</v>
+      </c>
+      <c r="M26" s="19">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="21">
         <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
@@ -1742,39 +1832,39 @@
         <v>35</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17">
+      <c r="C27" s="13">
         <v>180</v>
       </c>
-      <c r="D27" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>2</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="D27" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="13">
         <v>179</v>
       </c>
-      <c r="K27" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="21">
+      <c r="K27" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="17">
         <v>6</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="21">
         <f t="shared" si="5"/>
         <v>3.3519553072625698E-2</v>
       </c>
@@ -1784,39 +1874,39 @@
         <v>25</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17">
+      <c r="C28" s="13">
         <v>177</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="21">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="13">
         <v>178</v>
       </c>
-      <c r="K28" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="21">
+      <c r="K28" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="17">
         <v>4</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="21">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -1826,39 +1916,39 @@
         <v>26</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="17">
+      <c r="C29" s="13">
         <v>176</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="G29" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
         <v>177</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L29" s="21">
-        <v>2</v>
-      </c>
-      <c r="M29" s="23">
+      <c r="L29" s="17">
+        <v>2</v>
+      </c>
+      <c r="M29" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="21">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -1868,39 +1958,39 @@
         <v>27</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17">
+      <c r="C30" s="13">
         <v>180</v>
       </c>
-      <c r="D30" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
+      <c r="D30" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
         <v>5</v>
       </c>
-      <c r="F30" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="25">
+      <c r="F30" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="13">
         <v>180</v>
       </c>
-      <c r="K30" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="21">
+      <c r="K30" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
         <v>6</v>
       </c>
-      <c r="M30" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="25">
+      <c r="M30" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="21">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1910,39 +2000,39 @@
         <v>28</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17">
+      <c r="C31" s="13">
         <v>174</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="21">
         <f t="shared" si="1"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="13">
         <v>177</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L31" s="21">
-        <v>2</v>
-      </c>
-      <c r="M31" s="23">
+      <c r="L31" s="17">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="21">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -1952,39 +2042,39 @@
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17">
+      <c r="C32" s="13">
         <v>177</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E32" s="21">
-        <v>2</v>
-      </c>
-      <c r="F32" s="23">
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="19">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="21">
         <f t="shared" si="1"/>
         <v>1.1299435028248588E-2</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="13">
         <v>172</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="17">
         <v>4</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="19">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="21">
         <f t="shared" si="5"/>
         <v>2.3255813953488372E-2</v>
       </c>
@@ -1994,39 +2084,39 @@
         <v>36</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="17">
+      <c r="C33" s="13">
         <v>180</v>
       </c>
-      <c r="D33" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
+      <c r="D33" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
         <v>178</v>
       </c>
-      <c r="K33" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L33" s="21">
+      <c r="K33" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="17">
         <v>4</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="21">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -2036,39 +2126,39 @@
         <v>37</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="17">
+      <c r="C34" s="13">
         <v>174</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E34" s="21">
-        <v>2</v>
-      </c>
-      <c r="F34" s="23">
+      <c r="E34" s="17">
+        <v>2</v>
+      </c>
+      <c r="F34" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="21">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="13">
         <v>178</v>
       </c>
-      <c r="K34" s="19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L34" s="21">
-        <v>1</v>
-      </c>
-      <c r="M34" s="23">
+      <c r="K34" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="17">
+        <v>1</v>
+      </c>
+      <c r="M34" s="19">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="21">
         <f t="shared" si="5"/>
         <v>5.6179775280898875E-3</v>
       </c>
@@ -2078,39 +2168,39 @@
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="17">
+      <c r="C35" s="13">
         <v>179</v>
       </c>
-      <c r="D35" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1</v>
-      </c>
-      <c r="F35" s="23">
+      <c r="D35" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="21">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="13">
         <v>179</v>
       </c>
-      <c r="K35" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="21">
-        <v>0</v>
-      </c>
-      <c r="M35" s="23">
+      <c r="K35" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2120,39 +2210,39 @@
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="17">
+      <c r="C36" s="13">
         <v>180</v>
       </c>
-      <c r="D36" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="21">
+      <c r="D36" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
         <v>3</v>
       </c>
-      <c r="F36" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36" s="25">
+      <c r="F36" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="13">
         <v>179</v>
       </c>
-      <c r="K36" s="19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="21">
-        <v>2</v>
-      </c>
-      <c r="M36" s="23">
+      <c r="K36" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="17">
+        <v>2</v>
+      </c>
+      <c r="M36" s="19">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="21">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -2162,39 +2252,39 @@
         <v>31</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="17">
+      <c r="C37" s="13">
         <v>174</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
+      <c r="E37" s="17">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G37" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+      <c r="G37" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
         <v>180</v>
       </c>
-      <c r="K37" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
+      <c r="K37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
         <v>4</v>
       </c>
-      <c r="M37" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="25">
+      <c r="M37" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="21">
         <f t="shared" si="5"/>
         <v>2.2222222222222223E-2</v>
       </c>
@@ -2204,39 +2294,39 @@
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17">
+      <c r="C38" s="13">
         <v>178</v>
       </c>
-      <c r="D38" s="19">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="21">
-        <v>2</v>
-      </c>
-      <c r="F38" s="23">
+      <c r="D38" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>2</v>
+      </c>
+      <c r="F38" s="19">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="21">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="13">
         <v>174</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L38" s="21">
-        <v>0</v>
-      </c>
-      <c r="M38" s="23">
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N38" s="25">
+      <c r="N38" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2246,39 +2336,39 @@
         <v>33</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17">
+      <c r="C39" s="13">
         <v>172</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="17">
         <v>4</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="19">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="21">
         <f t="shared" si="1"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="13">
         <v>177</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="17">
         <v>6</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="19">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="21">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -2288,39 +2378,39 @@
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17">
+      <c r="C40" s="13">
         <v>179</v>
       </c>
-      <c r="D40" s="19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="21">
-        <v>1</v>
-      </c>
-      <c r="F40" s="23">
+      <c r="D40" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="21">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="13">
         <v>180</v>
       </c>
-      <c r="K40" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="21">
-        <v>2</v>
-      </c>
-      <c r="M40" s="23">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="25">
+      <c r="K40" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <v>2</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="21">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -2330,39 +2420,39 @@
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="17">
+      <c r="C41" s="13">
         <v>180</v>
       </c>
-      <c r="D41" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="25">
+      <c r="D41" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>2</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="13">
         <v>174</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="17">
         <v>5</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="19">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N41" s="21">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -2372,185 +2462,189 @@
         <v>40</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="17">
+      <c r="C42" s="13">
         <v>177</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="17">
         <v>5</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="19">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="21">
         <f t="shared" si="1"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="13">
         <v>170</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="15">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L42" s="21">
-        <v>1</v>
-      </c>
-      <c r="M42" s="23">
+      <c r="L42" s="17">
+        <v>1</v>
+      </c>
+      <c r="M42" s="19">
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="21">
         <f t="shared" si="5"/>
         <v>5.8823529411764705E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="F43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26">
         <f>MAX(C4:C42)</f>
         <v>180</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="26">
         <f>MAX(D4:D42)</f>
         <v>27</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="26">
         <f>MAX(E4:E42)</f>
         <v>15</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="27">
         <f>MAX(F4:F42)</f>
         <v>1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="27">
         <f>MAX(G4:G42)</f>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="J44">
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26">
         <f>MAX(J4:J42)</f>
         <v>180</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="26">
         <f>MAX(K4:K42)</f>
         <v>11</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="26">
         <f>MAX(L4:L42)</f>
         <v>16</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="27">
         <f>MAX(M4:M42)</f>
         <v>1</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="28">
         <f>MAX(N4:N42)</f>
         <v>9.03954802259887E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45">
+      <c r="B45" s="30"/>
+      <c r="C45" s="31">
         <f>MIN(C4:C42)</f>
         <v>153</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="31">
         <f>MIN(D4:D42)</f>
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="31">
         <f>MIN(E4:E42)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="32">
         <f>MIN(F4:F42)</f>
         <v>0.7</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="32">
         <f>MIN(G4:G42)</f>
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31">
         <f>MIN(J4:J42)</f>
         <v>169</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="31">
         <f>MIN(K4:K42)</f>
         <v>0</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="31">
         <f>MIN(L4:L42)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="32">
         <f>MIN(M4:M42)</f>
         <v>0.87777777777777777</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="33">
         <f>MIN(N4:N42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27">
+      <c r="B46" s="35"/>
+      <c r="C46" s="36">
         <f>AVERAGE(C4:C42)</f>
         <v>176.25641025641025</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="36">
         <f>AVERAGE(D4:D42)</f>
         <v>3.7435897435897436</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="36">
         <f>AVERAGE(E4:E42)</f>
         <v>2.8974358974358974</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="37">
         <f>AVERAGE(F4:F42)</f>
         <v>0.95840455840455829</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="37">
         <f>AVERAGE(G4:G42)</f>
         <v>1.6450529467536674E-2</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="27">
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="36">
         <f>AVERAGE(J4:J42)</f>
         <v>176.84615384615384</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K46" s="36">
         <f>AVERAGE(K4:K42)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L46" s="36">
         <f>AVERAGE(L4:L42)</f>
         <v>3.2820512820512819</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="37">
         <f>AVERAGE(M4:M42)</f>
         <v>0.96495726495726453</v>
       </c>
-      <c r="N46" s="28">
+      <c r="N46" s="39">
         <f>AVERAGE(N4:N42)</f>
         <v>1.8553484810524122E-2</v>
       </c>

--- a/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
+++ b/Week of July 9 2023/Day 1/Attendance Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbriody/Desktop/Coding Temple/Data-Analytics-Projects/Week of July 9 2023/Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E26E8E-7A54-8B4B-9E4F-B246F2684482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453C4B1-30A0-8E49-9ACF-BC92214D7791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
+    <workbookView xWindow="1500" yWindow="820" windowWidth="46040" windowHeight="25740" xr2:uid="{3E4B7A29-3A18-9B47-8AF0-A2A901AA8D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -405,6 +405,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -423,17 +438,10 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -450,6 +458,13 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +782,7 @@
   <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,28 +803,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -819,16 +834,16 @@
       <c r="C3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="8"/>
@@ -836,16 +851,16 @@
       <c r="J3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="16" t="s">
         <v>47</v>
       </c>
       <c r="O3" s="4"/>
@@ -866,39 +881,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="13">
+      <c r="C4" s="35">
         <v>180</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="36">
         <f>180-C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="37">
         <v>5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="38">
         <f t="shared" ref="F4:F42" si="0">(C4-D4)/180</f>
         <v>1</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="39">
         <f t="shared" ref="G4:G42" si="1">E4/C4</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="35">
         <v>177</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="36">
         <f>180-J4</f>
         <v>3</v>
       </c>
-      <c r="L4" s="17">
-        <v>2</v>
-      </c>
-      <c r="M4" s="19">
+      <c r="L4" s="37">
+        <v>2</v>
+      </c>
+      <c r="M4" s="38">
         <f>(J4-K4)/180</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="39">
         <f>L4/J4</f>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -908,39 +923,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="13">
+      <c r="C5" s="35">
         <v>153</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="36">
         <f t="shared" ref="D5:D42" si="2">180-C5</f>
         <v>27</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="37">
         <v>3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="35">
         <v>179</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="36">
         <f t="shared" ref="K5:K42" si="3">180-J5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="37">
         <v>4</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="38">
         <f t="shared" ref="M5:M42" si="4">(J5-K5)/180</f>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="39">
         <f t="shared" ref="N5:N42" si="5">L5/J5</f>
         <v>2.23463687150838E-2</v>
       </c>
@@ -950,39 +965,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13">
+      <c r="C6" s="35">
         <v>176</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="37">
         <v>3</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>1.7045454545454544E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="35">
         <v>174</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="37">
         <v>4</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="39">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -992,39 +1007,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="13">
+      <c r="C7" s="35">
         <v>178</v>
       </c>
-      <c r="D7" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="G7" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="35">
         <v>180</v>
       </c>
-      <c r="K7" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <v>2</v>
-      </c>
-      <c r="M7" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="21">
+      <c r="K7" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>2</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="39">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -1034,39 +1049,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="13">
+      <c r="C8" s="35">
         <v>179</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
+        <v>2</v>
+      </c>
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="39">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="35">
         <v>174</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="37">
         <v>4</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="39">
         <f t="shared" si="5"/>
         <v>2.2988505747126436E-2</v>
       </c>
@@ -1076,39 +1091,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="13">
+      <c r="C9" s="35">
         <v>180</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="D9" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="35">
         <v>178</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="17">
-        <v>2</v>
-      </c>
-      <c r="M9" s="19">
+      <c r="K9" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="37">
+        <v>2</v>
+      </c>
+      <c r="M9" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="39">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1118,39 +1133,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="13">
+      <c r="C10" s="35">
         <v>168</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="36">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="E10" s="37">
+        <v>2</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="35">
         <v>179</v>
       </c>
-      <c r="K10" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="17">
-        <v>1</v>
-      </c>
-      <c r="M10" s="19">
+      <c r="K10" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="37">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="39">
         <f t="shared" si="5"/>
         <v>5.5865921787709499E-3</v>
       </c>
@@ -1160,39 +1175,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="13">
+      <c r="C11" s="35">
         <v>178</v>
       </c>
-      <c r="D11" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="37">
         <v>15</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="35">
         <v>177</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
+      <c r="L11" s="37">
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1202,39 +1217,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="13">
+      <c r="C12" s="35">
         <v>174</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="35">
         <v>180</v>
       </c>
-      <c r="K12" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
         <v>6</v>
       </c>
-      <c r="M12" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="21">
+      <c r="M12" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="39">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -1244,39 +1259,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="13">
+      <c r="C13" s="35">
         <v>180</v>
       </c>
-      <c r="D13" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="D13" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>1</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="35">
         <v>176</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="36">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="37">
         <v>3</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="38">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="39">
         <f t="shared" si="5"/>
         <v>1.7045454545454544E-2</v>
       </c>
@@ -1286,39 +1301,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="13">
+      <c r="C14" s="35">
         <v>174</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="G14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
         <v>174</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="37">
         <v>5</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="39">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1328,39 +1343,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="13">
+      <c r="C15" s="35">
         <v>179</v>
       </c>
-      <c r="D15" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>2</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="D15" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <v>2</v>
+      </c>
+      <c r="F15" s="38">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>1.11731843575419E-2</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="35">
         <v>178</v>
       </c>
-      <c r="K15" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="37">
         <v>3</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="39">
         <f t="shared" si="5"/>
         <v>1.6853932584269662E-2</v>
       </c>
@@ -1370,39 +1385,39 @@
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="13">
+      <c r="C16" s="35">
         <v>176</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="37">
         <v>5</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="38">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>2.8409090909090908E-2</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="35">
         <v>179</v>
       </c>
-      <c r="K16" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="17">
-        <v>2</v>
-      </c>
-      <c r="M16" s="19">
+      <c r="K16" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="37">
+        <v>2</v>
+      </c>
+      <c r="M16" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="39">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1412,39 +1427,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="13">
+      <c r="C17" s="35">
         <v>178</v>
       </c>
-      <c r="D17" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="D17" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="G17" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="35">
         <v>178</v>
       </c>
-      <c r="K17" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
+      <c r="K17" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1454,39 +1469,39 @@
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="13">
+      <c r="C18" s="35">
         <v>177</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="37">
         <v>4</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="38">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="35">
         <v>174</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="37">
         <v>5</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="39">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -1496,39 +1511,39 @@
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="13">
+      <c r="C19" s="35">
         <v>180</v>
       </c>
-      <c r="D19" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>2</v>
-      </c>
-      <c r="F19" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="D19" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>2</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="35">
         <v>177</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="37">
         <v>6</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="39">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -1538,39 +1553,39 @@
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="13">
+      <c r="C20" s="35">
         <v>172</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="G20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
         <v>178</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>2</v>
-      </c>
-      <c r="M20" s="19">
+      <c r="K20" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="37">
+        <v>2</v>
+      </c>
+      <c r="M20" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="39">
         <f t="shared" si="5"/>
         <v>1.1235955056179775E-2</v>
       </c>
@@ -1580,39 +1595,39 @@
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="13">
+      <c r="C21" s="35">
         <v>178</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="37">
         <v>5</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="39">
         <f t="shared" si="1"/>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="35">
         <v>169</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="36">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="37">
         <v>3</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="38">
         <f t="shared" si="4"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="39">
         <f t="shared" si="5"/>
         <v>1.7751479289940829E-2</v>
       </c>
@@ -1622,39 +1637,39 @@
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="13">
+      <c r="C22" s="35">
         <v>172</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E22" s="17">
-        <v>2</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="E22" s="37">
+        <v>2</v>
+      </c>
+      <c r="F22" s="38">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="35">
         <v>177</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="37">
         <v>16</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="39">
         <f t="shared" si="5"/>
         <v>9.03954802259887E-2</v>
       </c>
@@ -1664,39 +1679,39 @@
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="13">
+      <c r="C23" s="35">
         <v>178</v>
       </c>
-      <c r="D23" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="17">
-        <v>2</v>
-      </c>
-      <c r="F23" s="19">
+      <c r="D23" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="37">
+        <v>2</v>
+      </c>
+      <c r="F23" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="39">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="35">
         <v>179</v>
       </c>
-      <c r="K23" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="17">
-        <v>2</v>
-      </c>
-      <c r="M23" s="19">
+      <c r="K23" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="37">
+        <v>2</v>
+      </c>
+      <c r="M23" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="39">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -1706,39 +1721,39 @@
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="13">
+      <c r="C24" s="35">
         <v>174</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="E24" s="37">
+        <v>0</v>
+      </c>
+      <c r="F24" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="G24" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="35">
         <v>180</v>
       </c>
-      <c r="K24" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="K24" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
         <v>5</v>
       </c>
-      <c r="M24" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="21">
+      <c r="M24" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="39">
         <f t="shared" si="5"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -1748,39 +1763,39 @@
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="13">
+      <c r="C25" s="35">
         <v>179</v>
       </c>
-      <c r="D25" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="37">
         <v>6</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="38">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="39">
         <f t="shared" si="1"/>
         <v>3.3519553072625698E-2</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="35">
         <v>176</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="36">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19">
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+      <c r="M25" s="38">
         <f t="shared" si="4"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1790,39 +1805,39 @@
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="13">
+      <c r="C26" s="35">
         <v>174</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="37">
         <v>13</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="39">
         <f t="shared" si="1"/>
         <v>7.4712643678160925E-2</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="35">
         <v>172</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="36">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L26" s="17">
-        <v>2</v>
-      </c>
-      <c r="M26" s="19">
+      <c r="L26" s="37">
+        <v>2</v>
+      </c>
+      <c r="M26" s="38">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="39">
         <f t="shared" si="5"/>
         <v>1.1627906976744186E-2</v>
       </c>
@@ -1832,39 +1847,39 @@
         <v>35</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="13">
+      <c r="C27" s="35">
         <v>180</v>
       </c>
-      <c r="D27" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>2</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="21">
+      <c r="D27" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
+        <v>2</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="39">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="35">
         <v>179</v>
       </c>
-      <c r="K27" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="17">
+      <c r="K27" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="37">
         <v>6</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="39">
         <f t="shared" si="5"/>
         <v>3.3519553072625698E-2</v>
       </c>
@@ -1874,39 +1889,39 @@
         <v>25</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="13">
+      <c r="C28" s="35">
         <v>177</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="37">
         <v>4</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="38">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="39">
         <f t="shared" si="1"/>
         <v>2.2598870056497175E-2</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="35">
         <v>178</v>
       </c>
-      <c r="K28" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="17">
+      <c r="K28" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="37">
         <v>4</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="39">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -1916,39 +1931,39 @@
         <v>26</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="13">
+      <c r="C29" s="35">
         <v>176</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
         <f t="shared" si="0"/>
         <v>0.9555555555555556</v>
       </c>
-      <c r="G29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
+      <c r="G29" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
         <v>177</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L29" s="17">
-        <v>2</v>
-      </c>
-      <c r="M29" s="19">
+      <c r="L29" s="37">
+        <v>2</v>
+      </c>
+      <c r="M29" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="39">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -1958,39 +1973,39 @@
         <v>27</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="13">
+      <c r="C30" s="35">
         <v>180</v>
       </c>
-      <c r="D30" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="D30" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="37">
         <v>5</v>
       </c>
-      <c r="F30" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="21">
+      <c r="F30" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="39">
         <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="35">
         <v>180</v>
       </c>
-      <c r="K30" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="17">
+      <c r="K30" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="37">
         <v>6</v>
       </c>
-      <c r="M30" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="21">
+      <c r="M30" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="39">
         <f t="shared" si="5"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2000,39 +2015,39 @@
         <v>28</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="13">
+      <c r="C31" s="35">
         <v>174</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="37">
         <v>5</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="39">
         <f t="shared" si="1"/>
         <v>2.8735632183908046E-2</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="35">
         <v>177</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L31" s="17">
-        <v>2</v>
-      </c>
-      <c r="M31" s="19">
+      <c r="L31" s="37">
+        <v>2</v>
+      </c>
+      <c r="M31" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="39">
         <f t="shared" si="5"/>
         <v>1.1299435028248588E-2</v>
       </c>
@@ -2042,39 +2057,39 @@
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="13">
+      <c r="C32" s="35">
         <v>177</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E32" s="17">
-        <v>2</v>
-      </c>
-      <c r="F32" s="19">
+      <c r="E32" s="37">
+        <v>2</v>
+      </c>
+      <c r="F32" s="38">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="39">
         <f t="shared" si="1"/>
         <v>1.1299435028248588E-2</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="35">
         <v>172</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="36">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="37">
         <v>4</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="38">
         <f t="shared" si="4"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="39">
         <f t="shared" si="5"/>
         <v>2.3255813953488372E-2</v>
       </c>
@@ -2084,39 +2099,39 @@
         <v>36</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="13">
+      <c r="C33" s="35">
         <v>180</v>
       </c>
-      <c r="D33" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="D33" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
         <v>178</v>
       </c>
-      <c r="K33" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L33" s="17">
+      <c r="K33" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="37">
         <v>4</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="39">
         <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
@@ -2126,39 +2141,39 @@
         <v>37</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="13">
+      <c r="C34" s="35">
         <v>174</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E34" s="17">
-        <v>2</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="E34" s="37">
+        <v>2</v>
+      </c>
+      <c r="F34" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="39">
         <f t="shared" si="1"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="35">
         <v>178</v>
       </c>
-      <c r="K34" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L34" s="17">
-        <v>1</v>
-      </c>
-      <c r="M34" s="19">
+      <c r="K34" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="37">
+        <v>1</v>
+      </c>
+      <c r="M34" s="38">
         <f t="shared" si="4"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="39">
         <f t="shared" si="5"/>
         <v>5.6179775280898875E-3</v>
       </c>
@@ -2168,39 +2183,39 @@
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="13">
+      <c r="C35" s="35">
         <v>179</v>
       </c>
-      <c r="D35" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="D35" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="37">
+        <v>1</v>
+      </c>
+      <c r="F35" s="38">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="39">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="35">
         <v>179</v>
       </c>
-      <c r="K35" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="19">
+      <c r="K35" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="37">
+        <v>0</v>
+      </c>
+      <c r="M35" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2210,39 +2225,39 @@
         <v>30</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="13">
+      <c r="C36" s="35">
         <v>180</v>
       </c>
-      <c r="D36" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="37">
         <v>3</v>
       </c>
-      <c r="F36" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="F36" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="39">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="35">
         <v>179</v>
       </c>
-      <c r="K36" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="17">
-        <v>2</v>
-      </c>
-      <c r="M36" s="19">
+      <c r="K36" s="36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="37">
+        <v>2</v>
+      </c>
+      <c r="M36" s="38">
         <f t="shared" si="4"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="39">
         <f t="shared" si="5"/>
         <v>1.11731843575419E-2</v>
       </c>
@@ -2252,39 +2267,39 @@
         <v>31</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="13">
+      <c r="C37" s="35">
         <v>174</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="G37" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="G37" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="35">
         <v>180</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
+      <c r="K37" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
         <v>4</v>
       </c>
-      <c r="M37" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="21">
+      <c r="M37" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="39">
         <f t="shared" si="5"/>
         <v>2.2222222222222223E-2</v>
       </c>
@@ -2294,39 +2309,39 @@
         <v>32</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="13">
+      <c r="C38" s="35">
         <v>178</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="17">
-        <v>2</v>
-      </c>
-      <c r="F38" s="19">
+      <c r="D38" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="37">
+        <v>2</v>
+      </c>
+      <c r="F38" s="38">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="39">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="35">
         <v>174</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L38" s="17">
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
+      <c r="L38" s="37">
+        <v>0</v>
+      </c>
+      <c r="M38" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2336,39 +2351,39 @@
         <v>33</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="13">
+      <c r="C39" s="35">
         <v>172</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="37">
         <v>4</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="38">
         <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="39">
         <f t="shared" si="1"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="35">
         <v>177</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="37">
         <v>6</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="38">
         <f t="shared" si="4"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="39">
         <f t="shared" si="5"/>
         <v>3.3898305084745763E-2</v>
       </c>
@@ -2378,39 +2393,39 @@
         <v>34</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="13">
+      <c r="C40" s="35">
         <v>179</v>
       </c>
-      <c r="D40" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="17">
-        <v>1</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="D40" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="37">
+        <v>1</v>
+      </c>
+      <c r="F40" s="38">
         <f t="shared" si="0"/>
         <v>0.98888888888888893</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="39">
         <f t="shared" si="1"/>
         <v>5.5865921787709499E-3</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="35">
         <v>180</v>
       </c>
-      <c r="K40" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="17">
-        <v>2</v>
-      </c>
-      <c r="M40" s="19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="21">
+      <c r="K40" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="37">
+        <v>2</v>
+      </c>
+      <c r="M40" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="39">
         <f t="shared" si="5"/>
         <v>1.1111111111111112E-2</v>
       </c>
@@ -2420,39 +2435,39 @@
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="13">
+      <c r="C41" s="35">
         <v>180</v>
       </c>
-      <c r="D41" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
-        <v>2</v>
-      </c>
-      <c r="F41" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41" s="21">
+      <c r="D41" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="37">
+        <v>2</v>
+      </c>
+      <c r="F41" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="39">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="35">
         <v>174</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="37">
         <v>5</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="38">
         <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="39">
         <f t="shared" si="5"/>
         <v>2.8735632183908046E-2</v>
       </c>
@@ -2462,39 +2477,39 @@
         <v>40</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="13">
+      <c r="C42" s="35">
         <v>177</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="37">
         <v>5</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="38">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="39">
         <f t="shared" si="1"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="35">
         <v>170</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="36">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L42" s="17">
-        <v>1</v>
-      </c>
-      <c r="M42" s="19">
+      <c r="L42" s="37">
+        <v>1</v>
+      </c>
+      <c r="M42" s="38">
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="39">
         <f t="shared" si="5"/>
         <v>5.8823529411764705E-3</v>
       </c>
@@ -2506,145 +2521,145 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19">
         <f>MAX(C4:C42)</f>
         <v>180</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="19">
         <f>MAX(D4:D42)</f>
         <v>27</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="19">
         <f>MAX(E4:E42)</f>
         <v>15</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="20">
         <f>MAX(F4:F42)</f>
         <v>1</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="20">
         <f>MAX(G4:G42)</f>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26">
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19">
         <f>MAX(J4:J42)</f>
         <v>180</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="19">
         <f>MAX(K4:K42)</f>
         <v>11</v>
       </c>
-      <c r="L44" s="26">
+      <c r="L44" s="19">
         <f>MAX(L4:L42)</f>
         <v>16</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M44" s="20">
         <f>MAX(M4:M42)</f>
         <v>1</v>
       </c>
-      <c r="N44" s="28">
+      <c r="N44" s="21">
         <f>MAX(N4:N42)</f>
         <v>9.03954802259887E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24">
         <f>MIN(C4:C42)</f>
         <v>153</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="24">
         <f>MIN(D4:D42)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="24">
         <f>MIN(E4:E42)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="25">
         <f>MIN(F4:F42)</f>
         <v>0.7</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="25">
         <f>MIN(G4:G42)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31">
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24">
         <f>MIN(J4:J42)</f>
         <v>169</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="24">
         <f>MIN(K4:K42)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="31">
+      <c r="L45" s="24">
         <f>MIN(L4:L42)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="25">
         <f>MIN(M4:M42)</f>
         <v>0.87777777777777777</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="26">
         <f>MIN(N4:N42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36">
+      <c r="B46" s="28"/>
+      <c r="C46" s="29">
         <f>AVERAGE(C4:C42)</f>
         <v>176.25641025641025</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="29">
         <f>AVERAGE(D4:D42)</f>
         <v>3.7435897435897436</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="29">
         <f>AVERAGE(E4:E42)</f>
         <v>2.8974358974358974</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="30">
         <f>AVERAGE(F4:F42)</f>
         <v>0.95840455840455829</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="30">
         <f>AVERAGE(G4:G42)</f>
         <v>1.6450529467536674E-2</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="36">
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="29">
         <f>AVERAGE(J4:J42)</f>
         <v>176.84615384615384</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="29">
         <f>AVERAGE(K4:K42)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="29">
         <f>AVERAGE(L4:L42)</f>
         <v>3.2820512820512819</v>
       </c>
-      <c r="M46" s="37">
+      <c r="M46" s="30">
         <f>AVERAGE(M4:M42)</f>
         <v>0.96495726495726453</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="32">
         <f>AVERAGE(N4:N42)</f>
         <v>1.8553484810524122E-2</v>
       </c>
